--- a/natmiOut/OldD2/LR-pairs_lrc2p/Inha-Tgfbr3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Inha-Tgfbr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.396065699090441</v>
+        <v>0.3688166666666666</v>
       </c>
       <c r="H2">
-        <v>0.396065699090441</v>
+        <v>1.10645</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.480574717760894</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.5812056951802134</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>35.4678296016328</v>
+        <v>35.789624</v>
       </c>
       <c r="N2">
-        <v>35.4678296016328</v>
+        <v>71.57924800000001</v>
       </c>
       <c r="O2">
-        <v>0.2710471872946258</v>
+        <v>0.258139457682779</v>
       </c>
       <c r="P2">
-        <v>0.2710471872946258</v>
+        <v>0.1993778771086309</v>
       </c>
       <c r="Q2">
-        <v>14.04759072639133</v>
+        <v>13.19980982493333</v>
       </c>
       <c r="R2">
-        <v>14.04759072639133</v>
+        <v>79.19885894960001</v>
       </c>
       <c r="S2">
-        <v>0.2710471872946258</v>
+        <v>0.1240552970188517</v>
       </c>
       <c r="T2">
-        <v>0.2710471872946258</v>
+        <v>0.115879557668477</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.396065699090441</v>
+        <v>0.3688166666666666</v>
       </c>
       <c r="H3">
-        <v>0.396065699090441</v>
+        <v>1.10645</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.480574717760894</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.5812056951802134</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>55.0641994299568</v>
+        <v>60.113367</v>
       </c>
       <c r="N3">
-        <v>55.0641994299568</v>
+        <v>180.340101</v>
       </c>
       <c r="O3">
-        <v>0.4208037690423842</v>
+        <v>0.4335790718803266</v>
       </c>
       <c r="P3">
-        <v>0.4208037690423842</v>
+        <v>0.5023219368682956</v>
       </c>
       <c r="Q3">
-        <v>21.8090406420813</v>
+        <v>22.17081163905</v>
       </c>
       <c r="R3">
-        <v>21.8090406420813</v>
+        <v>199.53730475145</v>
       </c>
       <c r="S3">
-        <v>0.4208037690423842</v>
+        <v>0.2083671400959183</v>
       </c>
       <c r="T3">
-        <v>0.4208037690423842</v>
+        <v>0.291952370521809</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.396065699090441</v>
+        <v>0.3688166666666666</v>
       </c>
       <c r="H4">
-        <v>0.396065699090441</v>
+        <v>1.10645</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.480574717760894</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.5812056951802134</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.156963783870009</v>
+        <v>0.2072186666666667</v>
       </c>
       <c r="N4">
-        <v>0.156963783870009</v>
+        <v>0.621656</v>
       </c>
       <c r="O4">
-        <v>0.00119952623554752</v>
+        <v>0.001494603973349423</v>
       </c>
       <c r="P4">
-        <v>0.00119952623554752</v>
+        <v>0.001731569652308208</v>
       </c>
       <c r="Q4">
-        <v>0.062167970790356</v>
+        <v>0.0764256979111111</v>
       </c>
       <c r="R4">
-        <v>0.062167970790356</v>
+        <v>0.6878312811999999</v>
       </c>
       <c r="S4">
-        <v>0.00119952623554752</v>
+        <v>0.0007182688826567098</v>
       </c>
       <c r="T4">
-        <v>0.00119952623554752</v>
+        <v>0.001006398143522753</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.396065699090441</v>
+        <v>0.3688166666666666</v>
       </c>
       <c r="H5">
-        <v>0.396065699090441</v>
+        <v>1.10645</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.480574717760894</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.5812056951802134</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.9395272275958</v>
+        <v>21.40334366666667</v>
       </c>
       <c r="N5">
-        <v>20.9395272275958</v>
+        <v>64.210031</v>
       </c>
       <c r="O5">
-        <v>0.1600210676003077</v>
+        <v>0.1543756795743782</v>
       </c>
       <c r="P5">
-        <v>0.1600210676003077</v>
+        <v>0.178851553034748</v>
       </c>
       <c r="Q5">
-        <v>8.293428490021054</v>
+        <v>7.893909866661111</v>
       </c>
       <c r="R5">
-        <v>8.293428490021054</v>
+        <v>71.04518879995</v>
       </c>
       <c r="S5">
-        <v>0.1600210676003077</v>
+        <v>0.07418904864060301</v>
       </c>
       <c r="T5">
-        <v>0.1600210676003077</v>
+        <v>0.1039495412156215</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,371 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.3688166666666666</v>
+      </c>
+      <c r="H6">
+        <v>1.10645</v>
+      </c>
+      <c r="I6">
+        <v>0.480574717760894</v>
+      </c>
+      <c r="J6">
+        <v>0.5812056951802134</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>21.1309775</v>
+      </c>
+      <c r="N6">
+        <v>42.261955</v>
+      </c>
+      <c r="O6">
+        <v>0.1524111868891667</v>
+      </c>
+      <c r="P6">
+        <v>0.1177170633360173</v>
+      </c>
+      <c r="Q6">
+        <v>7.793456684958333</v>
+      </c>
+      <c r="R6">
+        <v>46.76074010975</v>
+      </c>
+      <c r="S6">
+        <v>0.07324496312286413</v>
+      </c>
+      <c r="T6">
+        <v>0.06841782763078313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.3986325</v>
+      </c>
+      <c r="H7">
+        <v>0.797265</v>
+      </c>
+      <c r="I7">
+        <v>0.519425282239106</v>
+      </c>
+      <c r="J7">
+        <v>0.4187943048197866</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>35.789624</v>
+      </c>
+      <c r="N7">
+        <v>71.57924800000001</v>
+      </c>
+      <c r="O7">
+        <v>0.258139457682779</v>
+      </c>
+      <c r="P7">
+        <v>0.1993778771086309</v>
+      </c>
+      <c r="Q7">
+        <v>14.26690728918</v>
+      </c>
+      <c r="R7">
+        <v>57.06762915672</v>
+      </c>
+      <c r="S7">
+        <v>0.1340841606639272</v>
+      </c>
+      <c r="T7">
+        <v>0.08349831944015391</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.396065699090441</v>
-      </c>
-      <c r="H6">
-        <v>0.396065699090441</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>19.2262951485134</v>
-      </c>
-      <c r="N6">
-        <v>19.2262951485134</v>
-      </c>
-      <c r="O6">
-        <v>0.1469284498271347</v>
-      </c>
-      <c r="P6">
-        <v>0.1469284498271347</v>
-      </c>
-      <c r="Q6">
-        <v>7.614876028915114</v>
-      </c>
-      <c r="R6">
-        <v>7.614876028915114</v>
-      </c>
-      <c r="S6">
-        <v>0.1469284498271347</v>
-      </c>
-      <c r="T6">
-        <v>0.1469284498271347</v>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.3986325</v>
+      </c>
+      <c r="H8">
+        <v>0.797265</v>
+      </c>
+      <c r="I8">
+        <v>0.519425282239106</v>
+      </c>
+      <c r="J8">
+        <v>0.4187943048197866</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>60.113367</v>
+      </c>
+      <c r="N8">
+        <v>180.340101</v>
+      </c>
+      <c r="O8">
+        <v>0.4335790718803266</v>
+      </c>
+      <c r="P8">
+        <v>0.5023219368682956</v>
+      </c>
+      <c r="Q8">
+        <v>23.9631417706275</v>
+      </c>
+      <c r="R8">
+        <v>143.778850623765</v>
+      </c>
+      <c r="S8">
+        <v>0.2252119317844083</v>
+      </c>
+      <c r="T8">
+        <v>0.2103695663464866</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.3986325</v>
+      </c>
+      <c r="H9">
+        <v>0.797265</v>
+      </c>
+      <c r="I9">
+        <v>0.519425282239106</v>
+      </c>
+      <c r="J9">
+        <v>0.4187943048197866</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.2072186666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.621656</v>
+      </c>
+      <c r="O9">
+        <v>0.001494603973349423</v>
+      </c>
+      <c r="P9">
+        <v>0.001731569652308208</v>
+      </c>
+      <c r="Q9">
+        <v>0.08260409514</v>
+      </c>
+      <c r="R9">
+        <v>0.49562457084</v>
+      </c>
+      <c r="S9">
+        <v>0.0007763350906927134</v>
+      </c>
+      <c r="T9">
+        <v>0.0007251715087854556</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.3986325</v>
+      </c>
+      <c r="H10">
+        <v>0.797265</v>
+      </c>
+      <c r="I10">
+        <v>0.519425282239106</v>
+      </c>
+      <c r="J10">
+        <v>0.4187943048197866</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>21.40334366666667</v>
+      </c>
+      <c r="N10">
+        <v>64.210031</v>
+      </c>
+      <c r="O10">
+        <v>0.1543756795743782</v>
+      </c>
+      <c r="P10">
+        <v>0.178851553034748</v>
+      </c>
+      <c r="Q10">
+        <v>8.532068394202501</v>
+      </c>
+      <c r="R10">
+        <v>51.192410365215</v>
+      </c>
+      <c r="S10">
+        <v>0.08018663093377519</v>
+      </c>
+      <c r="T10">
+        <v>0.07490201181912647</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.3986325</v>
+      </c>
+      <c r="H11">
+        <v>0.797265</v>
+      </c>
+      <c r="I11">
+        <v>0.519425282239106</v>
+      </c>
+      <c r="J11">
+        <v>0.4187943048197866</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>21.1309775</v>
+      </c>
+      <c r="N11">
+        <v>42.261955</v>
+      </c>
+      <c r="O11">
+        <v>0.1524111868891667</v>
+      </c>
+      <c r="P11">
+        <v>0.1177170633360173</v>
+      </c>
+      <c r="Q11">
+        <v>8.42349438826875</v>
+      </c>
+      <c r="R11">
+        <v>33.693977553075</v>
+      </c>
+      <c r="S11">
+        <v>0.07916622376630253</v>
+      </c>
+      <c r="T11">
+        <v>0.04929923570523415</v>
       </c>
     </row>
   </sheetData>
